--- a/Stock Data Yahoo/data/asia_eu_us_index.xlsx
+++ b/Stock Data Yahoo/data/asia_eu_us_index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N248"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11374,6 +11374,3130 @@
         <v>111.5158005484673</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B249" t="n">
+        <v>119.8455678740248</v>
+      </c>
+      <c r="C249" t="n">
+        <v>119.3755207522612</v>
+      </c>
+      <c r="D249" t="n">
+        <v>115.0239230585252</v>
+      </c>
+      <c r="E249" t="n">
+        <v>89.87493258221677</v>
+      </c>
+      <c r="F249" t="n">
+        <v>105.1738651816357</v>
+      </c>
+      <c r="G249" t="n">
+        <v>118.7233225777297</v>
+      </c>
+      <c r="H249" t="n">
+        <v>97.11454191642838</v>
+      </c>
+      <c r="I249" t="n">
+        <v>109.4680216953886</v>
+      </c>
+      <c r="J249" t="n">
+        <v>103.4477550939338</v>
+      </c>
+      <c r="K249" t="n">
+        <v>124.5446251311087</v>
+      </c>
+      <c r="L249" t="n">
+        <v>131.971201937948</v>
+      </c>
+      <c r="M249" t="n">
+        <v>112.8826365477134</v>
+      </c>
+      <c r="N249" t="n">
+        <v>110.6806426497214</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B250" t="n">
+        <v>119.8455678740248</v>
+      </c>
+      <c r="C250" t="n">
+        <v>119.4858894023992</v>
+      </c>
+      <c r="D250" t="n">
+        <v>113.1482372496205</v>
+      </c>
+      <c r="E250" t="n">
+        <v>89.87493258221677</v>
+      </c>
+      <c r="F250" t="n">
+        <v>105.847309460597</v>
+      </c>
+      <c r="G250" t="n">
+        <v>118.7233225777297</v>
+      </c>
+      <c r="H250" t="n">
+        <v>98.0066070590664</v>
+      </c>
+      <c r="I250" t="n">
+        <v>109.4680216953886</v>
+      </c>
+      <c r="J250" t="n">
+        <v>104.1975227192567</v>
+      </c>
+      <c r="K250" t="n">
+        <v>124.0109762721608</v>
+      </c>
+      <c r="L250" t="n">
+        <v>130.7792697285633</v>
+      </c>
+      <c r="M250" t="n">
+        <v>112.8043873413395</v>
+      </c>
+      <c r="N250" t="n">
+        <v>110.7988800679829</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B251" t="n">
+        <v>119.8455678740248</v>
+      </c>
+      <c r="C251" t="n">
+        <v>116.8851354008231</v>
+      </c>
+      <c r="D251" t="n">
+        <v>110.1369746953101</v>
+      </c>
+      <c r="E251" t="n">
+        <v>89.85433003686512</v>
+      </c>
+      <c r="F251" t="n">
+        <v>106.9753235689309</v>
+      </c>
+      <c r="G251" t="n">
+        <v>119.4121952333078</v>
+      </c>
+      <c r="H251" t="n">
+        <v>98.17948945877059</v>
+      </c>
+      <c r="I251" t="n">
+        <v>109.4680216953886</v>
+      </c>
+      <c r="J251" t="n">
+        <v>104.985273531004</v>
+      </c>
+      <c r="K251" t="n">
+        <v>123.7351899186642</v>
+      </c>
+      <c r="L251" t="n">
+        <v>130.5760994656</v>
+      </c>
+      <c r="M251" t="n">
+        <v>112.4014997333002</v>
+      </c>
+      <c r="N251" t="n">
+        <v>110.8739004241531</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B252" t="n">
+        <v>119.8455678740248</v>
+      </c>
+      <c r="C252" t="n">
+        <v>117.7008652427517</v>
+      </c>
+      <c r="D252" t="n">
+        <v>108.4108996906247</v>
+      </c>
+      <c r="E252" t="n">
+        <v>91.46418165647391</v>
+      </c>
+      <c r="F252" t="n">
+        <v>106.5078028880399</v>
+      </c>
+      <c r="G252" t="n">
+        <v>118.7050717500948</v>
+      </c>
+      <c r="H252" t="n">
+        <v>96.69838965335406</v>
+      </c>
+      <c r="I252" t="n">
+        <v>109.516815462959</v>
+      </c>
+      <c r="J252" t="n">
+        <v>104.3157859645258</v>
+      </c>
+      <c r="K252" t="n">
+        <v>125.2937616772686</v>
+      </c>
+      <c r="L252" t="n">
+        <v>132.8847273963658</v>
+      </c>
+      <c r="M252" t="n">
+        <v>113.3026240154116</v>
+      </c>
+      <c r="N252" t="n">
+        <v>112.7022016928037</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B253" t="n">
+        <v>118.0807181391917</v>
+      </c>
+      <c r="C253" t="n">
+        <v>117.2721178798144</v>
+      </c>
+      <c r="D253" t="n">
+        <v>108.258758697627</v>
+      </c>
+      <c r="E253" t="n">
+        <v>93.21411778218217</v>
+      </c>
+      <c r="F253" t="n">
+        <v>106.8406423015282</v>
+      </c>
+      <c r="G253" t="n">
+        <v>120.5543336572748</v>
+      </c>
+      <c r="H253" t="n">
+        <v>98.86905448486341</v>
+      </c>
+      <c r="I253" t="n">
+        <v>112.1064417652696</v>
+      </c>
+      <c r="J253" t="n">
+        <v>106.1744246369744</v>
+      </c>
+      <c r="K253" t="n">
+        <v>125.987644178363</v>
+      </c>
+      <c r="L253" t="n">
+        <v>134.5324435198904</v>
+      </c>
+      <c r="M253" t="n">
+        <v>113.2348252986779</v>
+      </c>
+      <c r="N253" t="n">
+        <v>112.6117769951078</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B254" t="n">
+        <v>120.4126193028188</v>
+      </c>
+      <c r="C254" t="n">
+        <v>115.8383491911922</v>
+      </c>
+      <c r="D254" t="n">
+        <v>109.0257685304186</v>
+      </c>
+      <c r="E254" t="n">
+        <v>93.34372269796961</v>
+      </c>
+      <c r="F254" t="n">
+        <v>106.7836534959205</v>
+      </c>
+      <c r="G254" t="n">
+        <v>121.2960486899936</v>
+      </c>
+      <c r="H254" t="n">
+        <v>99.44880443430647</v>
+      </c>
+      <c r="I254" t="n">
+        <v>112.6725153324398</v>
+      </c>
+      <c r="J254" t="n">
+        <v>106.5177695425944</v>
+      </c>
+      <c r="K254" t="n">
+        <v>124.5886883531844</v>
+      </c>
+      <c r="L254" t="n">
+        <v>131.9907782393273</v>
+      </c>
+      <c r="M254" t="n">
+        <v>112.7623368081988</v>
+      </c>
+      <c r="N254" t="n">
+        <v>111.7746420037094</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B255" t="n">
+        <v>120.1054776912207</v>
+      </c>
+      <c r="C255" t="n">
+        <v>114.8392145037459</v>
+      </c>
+      <c r="D255" t="n">
+        <v>109.043455126896</v>
+      </c>
+      <c r="E255" t="n">
+        <v>94.42806767145149</v>
+      </c>
+      <c r="F255" t="n">
+        <v>106.857475879039</v>
+      </c>
+      <c r="G255" t="n">
+        <v>121.2326541432058</v>
+      </c>
+      <c r="H255" t="n">
+        <v>98.95841985071712</v>
+      </c>
+      <c r="I255" t="n">
+        <v>112.325635005055</v>
+      </c>
+      <c r="J255" t="n">
+        <v>106.0848259663947</v>
+      </c>
+      <c r="K255" t="n">
+        <v>124.7830915827303</v>
+      </c>
+      <c r="L255" t="n">
+        <v>131.9176448809989</v>
+      </c>
+      <c r="M255" t="n">
+        <v>113.0456186140931</v>
+      </c>
+      <c r="N255" t="n">
+        <v>111.2360843910476</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B256" t="n">
+        <v>117.7302875612458</v>
+      </c>
+      <c r="C256" t="n">
+        <v>113.5552991494157</v>
+      </c>
+      <c r="D256" t="n">
+        <v>106.9624861189887</v>
+      </c>
+      <c r="E256" t="n">
+        <v>94.23067462042577</v>
+      </c>
+      <c r="F256" t="n">
+        <v>106.8250987502428</v>
+      </c>
+      <c r="G256" t="n">
+        <v>120.5459827680507</v>
+      </c>
+      <c r="H256" t="n">
+        <v>98.67452288276604</v>
+      </c>
+      <c r="I256" t="n">
+        <v>111.8955582852256</v>
+      </c>
+      <c r="J256" t="n">
+        <v>105.8934400560832</v>
+      </c>
+      <c r="K256" t="n">
+        <v>122.8599790226119</v>
+      </c>
+      <c r="L256" t="n">
+        <v>129.769119350162</v>
+      </c>
+      <c r="M256" t="n">
+        <v>111.1982123344778</v>
+      </c>
+      <c r="N256" t="n">
+        <v>108.7653978219717</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B257" t="n">
+        <v>117.7302875612458</v>
+      </c>
+      <c r="C257" t="n">
+        <v>112.4226913384284</v>
+      </c>
+      <c r="D257" t="n">
+        <v>106.7002201016987</v>
+      </c>
+      <c r="E257" t="n">
+        <v>93.24858338068657</v>
+      </c>
+      <c r="F257" t="n">
+        <v>106.5103955878068</v>
+      </c>
+      <c r="G257" t="n">
+        <v>120.0573567490559</v>
+      </c>
+      <c r="H257" t="n">
+        <v>98.37708138537519</v>
+      </c>
+      <c r="I257" t="n">
+        <v>111.3773673759052</v>
+      </c>
+      <c r="J257" t="n">
+        <v>105.4088897455984</v>
+      </c>
+      <c r="K257" t="n">
+        <v>123.0535380502395</v>
+      </c>
+      <c r="L257" t="n">
+        <v>129.2711405702114</v>
+      </c>
+      <c r="M257" t="n">
+        <v>112.1492172490044</v>
+      </c>
+      <c r="N257" t="n">
+        <v>109.0222500551585</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B258" t="n">
+        <v>115.5790876155067</v>
+      </c>
+      <c r="C258" t="n">
+        <v>114.4814674435168</v>
+      </c>
+      <c r="D258" t="n">
+        <v>109.4070935284694</v>
+      </c>
+      <c r="E258" t="n">
+        <v>93.54223137728336</v>
+      </c>
+      <c r="F258" t="n">
+        <v>106.2164087288739</v>
+      </c>
+      <c r="G258" t="n">
+        <v>120.8831513763477</v>
+      </c>
+      <c r="H258" t="n">
+        <v>98.5766573359188</v>
+      </c>
+      <c r="I258" t="n">
+        <v>111.9677335432179</v>
+      </c>
+      <c r="J258" t="n">
+        <v>105.714960204278</v>
+      </c>
+      <c r="K258" t="n">
+        <v>123.1945918366086</v>
+      </c>
+      <c r="L258" t="n">
+        <v>128.9751283752338</v>
+      </c>
+      <c r="M258" t="n">
+        <v>112.7356150408336</v>
+      </c>
+      <c r="N258" t="n">
+        <v>110.2563561406133</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B259" t="n">
+        <v>115.4897989885238</v>
+      </c>
+      <c r="C259" t="n">
+        <v>114.8763259187286</v>
+      </c>
+      <c r="D259" t="n">
+        <v>108.9404591361326</v>
+      </c>
+      <c r="E259" t="n">
+        <v>93.52013827938295</v>
+      </c>
+      <c r="F259" t="n">
+        <v>107.5063084811889</v>
+      </c>
+      <c r="G259" t="n">
+        <v>122.6921030637165</v>
+      </c>
+      <c r="H259" t="n">
+        <v>99.2528075073391</v>
+      </c>
+      <c r="I259" t="n">
+        <v>113.1331636254263</v>
+      </c>
+      <c r="J259" t="n">
+        <v>106.7815431288538</v>
+      </c>
+      <c r="K259" t="n">
+        <v>125.4506288068874</v>
+      </c>
+      <c r="L259" t="n">
+        <v>132.1367275024482</v>
+      </c>
+      <c r="M259" t="n">
+        <v>114.6003076110429</v>
+      </c>
+      <c r="N259" t="n">
+        <v>112.4448521541031</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B260" t="n">
+        <v>115.8743890083342</v>
+      </c>
+      <c r="C260" t="n">
+        <v>116.2869319655857</v>
+      </c>
+      <c r="D260" t="n">
+        <v>109.2414114925954</v>
+      </c>
+      <c r="E260" t="n">
+        <v>94.66928113851148</v>
+      </c>
+      <c r="F260" t="n">
+        <v>108.6822559169203</v>
+      </c>
+      <c r="G260" t="n">
+        <v>123.1734031282873</v>
+      </c>
+      <c r="H260" t="n">
+        <v>101.3793958854585</v>
+      </c>
+      <c r="I260" t="n">
+        <v>114.8107251884515</v>
+      </c>
+      <c r="J260" t="n">
+        <v>107.9384422133637</v>
+      </c>
+      <c r="K260" t="n">
+        <v>125.1855905851308</v>
+      </c>
+      <c r="L260" t="n">
+        <v>130.9655091362797</v>
+      </c>
+      <c r="M260" t="n">
+        <v>114.4188895966359</v>
+      </c>
+      <c r="N260" t="n">
+        <v>112.6187392723013</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B261" t="n">
+        <v>115.510475366595</v>
+      </c>
+      <c r="C261" t="n">
+        <v>116.6512869517428</v>
+      </c>
+      <c r="D261" t="n">
+        <v>109.4368376695165</v>
+      </c>
+      <c r="E261" t="n">
+        <v>94.52170729169163</v>
+      </c>
+      <c r="F261" t="n">
+        <v>110.1495848645017</v>
+      </c>
+      <c r="G261" t="n">
+        <v>124.6522908690422</v>
+      </c>
+      <c r="H261" t="n">
+        <v>102.3754277727432</v>
+      </c>
+      <c r="I261" t="n">
+        <v>115.7407706231881</v>
+      </c>
+      <c r="J261" t="n">
+        <v>108.8129304881439</v>
+      </c>
+      <c r="K261" t="n">
+        <v>126.4363272027802</v>
+      </c>
+      <c r="L261" t="n">
+        <v>132.942424576512</v>
+      </c>
+      <c r="M261" t="n">
+        <v>115.3063319195654</v>
+      </c>
+      <c r="N261" t="n">
+        <v>113.0703411964613</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B262" t="n">
+        <v>117.242374324116</v>
+      </c>
+      <c r="C262" t="n">
+        <v>119.7634688260624</v>
+      </c>
+      <c r="D262" t="n">
+        <v>109.4639115136117</v>
+      </c>
+      <c r="E262" t="n">
+        <v>94.31495027864189</v>
+      </c>
+      <c r="F262" t="n">
+        <v>110.7077615060222</v>
+      </c>
+      <c r="G262" t="n">
+        <v>125.4788541974341</v>
+      </c>
+      <c r="H262" t="n">
+        <v>103.1880865716527</v>
+      </c>
+      <c r="I262" t="n">
+        <v>116.1377949168859</v>
+      </c>
+      <c r="J262" t="n">
+        <v>108.8745733235183</v>
+      </c>
+      <c r="K262" t="n">
+        <v>127.54494963409</v>
+      </c>
+      <c r="L262" t="n">
+        <v>133.7996681684644</v>
+      </c>
+      <c r="M262" t="n">
+        <v>116.7327667904361</v>
+      </c>
+      <c r="N262" t="n">
+        <v>115.1614623644645</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B263" t="n">
+        <v>119.0996927645115</v>
+      </c>
+      <c r="C263" t="n">
+        <v>117.8110593878036</v>
+      </c>
+      <c r="D263" t="n">
+        <v>108.4849674644096</v>
+      </c>
+      <c r="E263" t="n">
+        <v>95.40229464620958</v>
+      </c>
+      <c r="F263" t="n">
+        <v>110.6663162516998</v>
+      </c>
+      <c r="G263" t="n">
+        <v>126.7446719696172</v>
+      </c>
+      <c r="H263" t="n">
+        <v>104.0704520417</v>
+      </c>
+      <c r="I263" t="n">
+        <v>117.034129291958</v>
+      </c>
+      <c r="J263" t="n">
+        <v>109.1691727024</v>
+      </c>
+      <c r="K263" t="n">
+        <v>128.3278130763995</v>
+      </c>
+      <c r="L263" t="n">
+        <v>135.510094592556</v>
+      </c>
+      <c r="M263" t="n">
+        <v>117.0799011916044</v>
+      </c>
+      <c r="N263" t="n">
+        <v>114.4534933832289</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B264" t="n">
+        <v>120.0388251217289</v>
+      </c>
+      <c r="C264" t="n">
+        <v>117.345212243556</v>
+      </c>
+      <c r="D264" t="n">
+        <v>109.0433232603798</v>
+      </c>
+      <c r="E264" t="n">
+        <v>94.21981096135885</v>
+      </c>
+      <c r="F264" t="n">
+        <v>110.926635955611</v>
+      </c>
+      <c r="G264" t="n">
+        <v>127.6824523708139</v>
+      </c>
+      <c r="H264" t="n">
+        <v>104.8035683383754</v>
+      </c>
+      <c r="I264" t="n">
+        <v>117.2964849826066</v>
+      </c>
+      <c r="J264" t="n">
+        <v>109.2666550060063</v>
+      </c>
+      <c r="K264" t="n">
+        <v>129.0096811428764</v>
+      </c>
+      <c r="L264" t="n">
+        <v>135.8103791830373</v>
+      </c>
+      <c r="M264" t="n">
+        <v>118.1625988472354</v>
+      </c>
+      <c r="N264" t="n">
+        <v>114.994040217946</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B265" t="n">
+        <v>119.9580440850421</v>
+      </c>
+      <c r="C265" t="n">
+        <v>119.5230589857439</v>
+      </c>
+      <c r="D265" t="n">
+        <v>109.8015886948198</v>
+      </c>
+      <c r="E265" t="n">
+        <v>95.01799727896432</v>
+      </c>
+      <c r="F265" t="n">
+        <v>110.1133250097131</v>
+      </c>
+      <c r="G265" t="n">
+        <v>127.583464633693</v>
+      </c>
+      <c r="H265" t="n">
+        <v>105.2684588627225</v>
+      </c>
+      <c r="I265" t="n">
+        <v>117.3385277564637</v>
+      </c>
+      <c r="J265" t="n">
+        <v>109.0953412978735</v>
+      </c>
+      <c r="K265" t="n">
+        <v>128.6413414327301</v>
+      </c>
+      <c r="L265" t="n">
+        <v>135.13735123251</v>
+      </c>
+      <c r="M265" t="n">
+        <v>117.7892191133137</v>
+      </c>
+      <c r="N265" t="n">
+        <v>114.6532161293402</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B266" t="n">
+        <v>118.8580185270674</v>
+      </c>
+      <c r="C266" t="n">
+        <v>120.3068078622219</v>
+      </c>
+      <c r="D266" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E266" t="n">
+        <v>95.01799727896432</v>
+      </c>
+      <c r="F266" t="n">
+        <v>110.130158587224</v>
+      </c>
+      <c r="G266" t="n">
+        <v>126.9111074047812</v>
+      </c>
+      <c r="H266" t="n">
+        <v>104.9890745766719</v>
+      </c>
+      <c r="I266" t="n">
+        <v>116.6434059257259</v>
+      </c>
+      <c r="J266" t="n">
+        <v>108.1219444906486</v>
+      </c>
+      <c r="K266" t="n">
+        <v>126.7656586072151</v>
+      </c>
+      <c r="L266" t="n">
+        <v>130.9894901054693</v>
+      </c>
+      <c r="M266" t="n">
+        <v>118.5563616967287</v>
+      </c>
+      <c r="N266" t="n">
+        <v>113.4747597438221</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B267" t="n">
+        <v>117.2090011009409</v>
+      </c>
+      <c r="C267" t="n">
+        <v>120.469656008594</v>
+      </c>
+      <c r="D267" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E267" t="n">
+        <v>95.01799727896432</v>
+      </c>
+      <c r="F267" t="n">
+        <v>110.5212768325455</v>
+      </c>
+      <c r="G267" t="n">
+        <v>127.7960570758238</v>
+      </c>
+      <c r="H267" t="n">
+        <v>104.8667783036738</v>
+      </c>
+      <c r="I267" t="n">
+        <v>116.8066153152055</v>
+      </c>
+      <c r="J267" t="n">
+        <v>108.2624324061592</v>
+      </c>
+      <c r="K267" t="n">
+        <v>127.9341678989956</v>
+      </c>
+      <c r="L267" t="n">
+        <v>133.6426212588183</v>
+      </c>
+      <c r="M267" t="n">
+        <v>118.9190112946075</v>
+      </c>
+      <c r="N267" t="n">
+        <v>113.7152251538584</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B268" t="n">
+        <v>118.4043468740532</v>
+      </c>
+      <c r="C268" t="n">
+        <v>120.469656008594</v>
+      </c>
+      <c r="D268" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E268" t="n">
+        <v>95.01799727896432</v>
+      </c>
+      <c r="F268" t="n">
+        <v>110.8307945954478</v>
+      </c>
+      <c r="G268" t="n">
+        <v>129.030148457147</v>
+      </c>
+      <c r="H268" t="n">
+        <v>104.536269740633</v>
+      </c>
+      <c r="I268" t="n">
+        <v>117.5923431656342</v>
+      </c>
+      <c r="J268" t="n">
+        <v>109.0559143828703</v>
+      </c>
+      <c r="K268" t="n">
+        <v>127.3355772632127</v>
+      </c>
+      <c r="L268" t="n">
+        <v>132.9567893490106</v>
+      </c>
+      <c r="M268" t="n">
+        <v>118.5562063376161</v>
+      </c>
+      <c r="N268" t="n">
+        <v>113.4290561541618</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B269" t="n">
+        <v>118.7023120227388</v>
+      </c>
+      <c r="C269" t="n">
+        <v>120.469656008594</v>
+      </c>
+      <c r="D269" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E269" t="n">
+        <v>95.01799727896432</v>
+      </c>
+      <c r="F269" t="n">
+        <v>111.9847230541346</v>
+      </c>
+      <c r="G269" t="n">
+        <v>129.5648732481768</v>
+      </c>
+      <c r="H269" t="n">
+        <v>105.4546264423319</v>
+      </c>
+      <c r="I269" t="n">
+        <v>118.7512527758659</v>
+      </c>
+      <c r="J269" t="n">
+        <v>110.1884450789461</v>
+      </c>
+      <c r="K269" t="n">
+        <v>128.0073252018157</v>
+      </c>
+      <c r="L269" t="n">
+        <v>133.2915441025962</v>
+      </c>
+      <c r="M269" t="n">
+        <v>119.0032677200014</v>
+      </c>
+      <c r="N269" t="n">
+        <v>114.6388063988422</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B270" t="n">
+        <v>118.8781081747734</v>
+      </c>
+      <c r="C270" t="n">
+        <v>120.469656008594</v>
+      </c>
+      <c r="D270" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E270" t="n">
+        <v>94.29023271091638</v>
+      </c>
+      <c r="F270" t="n">
+        <v>112.3356860713592</v>
+      </c>
+      <c r="G270" t="n">
+        <v>129.5938043623088</v>
+      </c>
+      <c r="H270" t="n">
+        <v>105.5678908677907</v>
+      </c>
+      <c r="I270" t="n">
+        <v>118.8560194165166</v>
+      </c>
+      <c r="J270" t="n">
+        <v>110.591997841232</v>
+      </c>
+      <c r="K270" t="n">
+        <v>127.361294536284</v>
+      </c>
+      <c r="L270" t="n">
+        <v>132.9237344995871</v>
+      </c>
+      <c r="M270" t="n">
+        <v>118.1084820896836</v>
+      </c>
+      <c r="N270" t="n">
+        <v>113.6570889263526</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B271" t="n">
+        <v>115.7166406823346</v>
+      </c>
+      <c r="C271" t="n">
+        <v>120.4229002791849</v>
+      </c>
+      <c r="D271" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E271" t="n">
+        <v>91.91477660640872</v>
+      </c>
+      <c r="F271" t="n">
+        <v>111.1649240351616</v>
+      </c>
+      <c r="G271" t="n">
+        <v>127.7821039861578</v>
+      </c>
+      <c r="H271" t="n">
+        <v>104.3030950578936</v>
+      </c>
+      <c r="I271" t="n">
+        <v>117.3057058520687</v>
+      </c>
+      <c r="J271" t="n">
+        <v>109.5118001186657</v>
+      </c>
+      <c r="K271" t="n">
+        <v>126.3922536855591</v>
+      </c>
+      <c r="L271" t="n">
+        <v>131.3289934348625</v>
+      </c>
+      <c r="M271" t="n">
+        <v>117.7830151060844</v>
+      </c>
+      <c r="N271" t="n">
+        <v>112.2028948275253</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B272" t="n">
+        <v>116.5526141067347</v>
+      </c>
+      <c r="C272" t="n">
+        <v>123.8341606037783</v>
+      </c>
+      <c r="D272" t="n">
+        <v>109.7332323895152</v>
+      </c>
+      <c r="E272" t="n">
+        <v>92.95380146681345</v>
+      </c>
+      <c r="F272" t="n">
+        <v>110.9991556651881</v>
+      </c>
+      <c r="G272" t="n">
+        <v>128.24401181843</v>
+      </c>
+      <c r="H272" t="n">
+        <v>104.986682077216</v>
+      </c>
+      <c r="I272" t="n">
+        <v>118.3551286146632</v>
+      </c>
+      <c r="J272" t="n">
+        <v>110.5239063515395</v>
+      </c>
+      <c r="K272" t="n">
+        <v>127.3054227824978</v>
+      </c>
+      <c r="L272" t="n">
+        <v>133.1037438816618</v>
+      </c>
+      <c r="M272" t="n">
+        <v>118.1386528293484</v>
+      </c>
+      <c r="N272" t="n">
+        <v>113.7822886218075</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B273" t="n">
+        <v>116.6520766382509</v>
+      </c>
+      <c r="C273" t="n">
+        <v>122.6853354534538</v>
+      </c>
+      <c r="D273" t="n">
+        <v>109.0205021114302</v>
+      </c>
+      <c r="E273" t="n">
+        <v>93.9868366835407</v>
+      </c>
+      <c r="F273" t="n">
+        <v>111.6790753699087</v>
+      </c>
+      <c r="G273" t="n">
+        <v>128.722446724355</v>
+      </c>
+      <c r="H273" t="n">
+        <v>104.7912233005327</v>
+      </c>
+      <c r="I273" t="n">
+        <v>118.5019380291709</v>
+      </c>
+      <c r="J273" t="n">
+        <v>110.3533101327609</v>
+      </c>
+      <c r="K273" t="n">
+        <v>127.8030180424481</v>
+      </c>
+      <c r="L273" t="n">
+        <v>133.3631960110905</v>
+      </c>
+      <c r="M273" t="n">
+        <v>118.9798084940005</v>
+      </c>
+      <c r="N273" t="n">
+        <v>115.0750161108792</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B274" t="n">
+        <v>117.3581831636079</v>
+      </c>
+      <c r="C274" t="n">
+        <v>124.4396816189605</v>
+      </c>
+      <c r="D274" t="n">
+        <v>110.4103422249277</v>
+      </c>
+      <c r="E274" t="n">
+        <v>95.01612265766069</v>
+      </c>
+      <c r="F274" t="n">
+        <v>113.0259639278314</v>
+      </c>
+      <c r="G274" t="n">
+        <v>130.6097593359913</v>
+      </c>
+      <c r="H274" t="n">
+        <v>106.3307545560743</v>
+      </c>
+      <c r="I274" t="n">
+        <v>120.4243136764156</v>
+      </c>
+      <c r="J274" t="n">
+        <v>111.4528625681517</v>
+      </c>
+      <c r="K274" t="n">
+        <v>128.268770417847</v>
+      </c>
+      <c r="L274" t="n">
+        <v>134.038128682833</v>
+      </c>
+      <c r="M274" t="n">
+        <v>118.6466460556911</v>
+      </c>
+      <c r="N274" t="n">
+        <v>114.6224195756917</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B275" t="n">
+        <v>116.5185133379067</v>
+      </c>
+      <c r="C275" t="n">
+        <v>125.8806631844758</v>
+      </c>
+      <c r="D275" t="n">
+        <v>111.5246225279767</v>
+      </c>
+      <c r="E275" t="n">
+        <v>94.46064950415808</v>
+      </c>
+      <c r="F275" t="n">
+        <v>112.6788836365991</v>
+      </c>
+      <c r="G275" t="n">
+        <v>129.9214806767179</v>
+      </c>
+      <c r="H275" t="n">
+        <v>105.8714400467192</v>
+      </c>
+      <c r="I275" t="n">
+        <v>119.7222213074534</v>
+      </c>
+      <c r="J275" t="n">
+        <v>111.1890802320221</v>
+      </c>
+      <c r="K275" t="n">
+        <v>127.0547359933518</v>
+      </c>
+      <c r="L275" t="n">
+        <v>132.2191463767011</v>
+      </c>
+      <c r="M275" t="n">
+        <v>117.4687857649624</v>
+      </c>
+      <c r="N275" t="n">
+        <v>113.2606272672128</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B276" t="n">
+        <v>116.5610278201723</v>
+      </c>
+      <c r="C276" t="n">
+        <v>128.1943912203932</v>
+      </c>
+      <c r="D276" t="n">
+        <v>112.1492412483078</v>
+      </c>
+      <c r="E276" t="n">
+        <v>94.43630686069332</v>
+      </c>
+      <c r="F276" t="n">
+        <v>113.5504734143301</v>
+      </c>
+      <c r="G276" t="n">
+        <v>130.6653387549278</v>
+      </c>
+      <c r="H276" t="n">
+        <v>106.3121656781883</v>
+      </c>
+      <c r="I276" t="n">
+        <v>120.4618557877971</v>
+      </c>
+      <c r="J276" t="n">
+        <v>111.8951247560864</v>
+      </c>
+      <c r="K276" t="n">
+        <v>127.9075961288606</v>
+      </c>
+      <c r="L276" t="n">
+        <v>133.5117774931131</v>
+      </c>
+      <c r="M276" t="n">
+        <v>117.9116110222112</v>
+      </c>
+      <c r="N276" t="n">
+        <v>113.6695094347953</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B277" t="n">
+        <v>116.5610278201723</v>
+      </c>
+      <c r="C277" t="n">
+        <v>126.8415579907159</v>
+      </c>
+      <c r="D277" t="n">
+        <v>112.0103940484685</v>
+      </c>
+      <c r="E277" t="n">
+        <v>95.10227293718043</v>
+      </c>
+      <c r="F277" t="n">
+        <v>113.6748091772971</v>
+      </c>
+      <c r="G277" t="n">
+        <v>131.4172449007164</v>
+      </c>
+      <c r="H277" t="n">
+        <v>106.613322357661</v>
+      </c>
+      <c r="I277" t="n">
+        <v>121.1949807733894</v>
+      </c>
+      <c r="J277" t="n">
+        <v>112.5552849609594</v>
+      </c>
+      <c r="K277" t="n">
+        <v>127.9510313470704</v>
+      </c>
+      <c r="L277" t="n">
+        <v>133.0349358277598</v>
+      </c>
+      <c r="M277" t="n">
+        <v>118.238372665082</v>
+      </c>
+      <c r="N277" t="n">
+        <v>113.0614018266153</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B278" t="n">
+        <v>117.0492696263067</v>
+      </c>
+      <c r="C278" t="n">
+        <v>130.1953945083017</v>
+      </c>
+      <c r="D278" t="n">
+        <v>112.9666900235233</v>
+      </c>
+      <c r="E278" t="n">
+        <v>95.45210470592129</v>
+      </c>
+      <c r="F278" t="n">
+        <v>114.0633347228518</v>
+      </c>
+      <c r="G278" t="n">
+        <v>132.0743911654347</v>
+      </c>
+      <c r="H278" t="n">
+        <v>106.7897967484182</v>
+      </c>
+      <c r="I278" t="n">
+        <v>121.5263502810719</v>
+      </c>
+      <c r="J278" t="n">
+        <v>112.701512791304</v>
+      </c>
+      <c r="K278" t="n">
+        <v>127.6025097917127</v>
+      </c>
+      <c r="L278" t="n">
+        <v>133.0761783329629</v>
+      </c>
+      <c r="M278" t="n">
+        <v>117.6415554554352</v>
+      </c>
+      <c r="N278" t="n">
+        <v>112.0771978265566</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B279" t="n">
+        <v>118.5445989005612</v>
+      </c>
+      <c r="C279" t="n">
+        <v>129.9359868809403</v>
+      </c>
+      <c r="D279" t="n">
+        <v>112.4973853342346</v>
+      </c>
+      <c r="E279" t="n">
+        <v>96.75482020004129</v>
+      </c>
+      <c r="F279" t="n">
+        <v>113.5103308335492</v>
+      </c>
+      <c r="G279" t="n">
+        <v>134.8412841873991</v>
+      </c>
+      <c r="H279" t="n">
+        <v>108.4087343476883</v>
+      </c>
+      <c r="I279" t="n">
+        <v>123.6587092758653</v>
+      </c>
+      <c r="J279" t="n">
+        <v>114.079179850169</v>
+      </c>
+      <c r="K279" t="n">
+        <v>128.9329308343309</v>
+      </c>
+      <c r="L279" t="n">
+        <v>135.0787016917562</v>
+      </c>
+      <c r="M279" t="n">
+        <v>118.5506651959337</v>
+      </c>
+      <c r="N279" t="n">
+        <v>113.3833404350987</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B280" t="n">
+        <v>117.6072149998322</v>
+      </c>
+      <c r="C280" t="n">
+        <v>134.7366450675905</v>
+      </c>
+      <c r="D280" t="n">
+        <v>112.9781376854558</v>
+      </c>
+      <c r="E280" t="n">
+        <v>97.04997703817514</v>
+      </c>
+      <c r="F280" t="n">
+        <v>113.0933108851907</v>
+      </c>
+      <c r="G280" t="n">
+        <v>134.2533093747059</v>
+      </c>
+      <c r="H280" t="n">
+        <v>108.6003482675224</v>
+      </c>
+      <c r="I280" t="n">
+        <v>123.4990894391406</v>
+      </c>
+      <c r="J280" t="n">
+        <v>114.2576597019742</v>
+      </c>
+      <c r="K280" t="n">
+        <v>128.9236549083753</v>
+      </c>
+      <c r="L280" t="n">
+        <v>135.6281343989808</v>
+      </c>
+      <c r="M280" t="n">
+        <v>118.1122417802083</v>
+      </c>
+      <c r="N280" t="n">
+        <v>113.2740423866832</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B281" t="n">
+        <v>117.9706123188499</v>
+      </c>
+      <c r="C281" t="n">
+        <v>136.8599996882176</v>
+      </c>
+      <c r="D281" t="n">
+        <v>112.2275946838673</v>
+      </c>
+      <c r="E281" t="n">
+        <v>98.38939853186976</v>
+      </c>
+      <c r="F281" t="n">
+        <v>113.5362325365862</v>
+      </c>
+      <c r="G281" t="n">
+        <v>136.2276249744931</v>
+      </c>
+      <c r="H281" t="n">
+        <v>108.9724111097301</v>
+      </c>
+      <c r="I281" t="n">
+        <v>124.4082342364297</v>
+      </c>
+      <c r="J281" t="n">
+        <v>114.9601080293971</v>
+      </c>
+      <c r="K281" t="n">
+        <v>129.2388716685424</v>
+      </c>
+      <c r="L281" t="n">
+        <v>135.7262672232597</v>
+      </c>
+      <c r="M281" t="n">
+        <v>118.1394503394597</v>
+      </c>
+      <c r="N281" t="n">
+        <v>113.789250899001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B282" t="n">
+        <v>117.652815683819</v>
+      </c>
+      <c r="C282" t="n">
+        <v>136.6659965671359</v>
+      </c>
+      <c r="D282" t="n">
+        <v>113.1406796499142</v>
+      </c>
+      <c r="E282" t="n">
+        <v>100.0640480371252</v>
+      </c>
+      <c r="F282" t="n">
+        <v>112.834293854821</v>
+      </c>
+      <c r="G282" t="n">
+        <v>133.7775066876996</v>
+      </c>
+      <c r="H282" t="n">
+        <v>107.6973969281733</v>
+      </c>
+      <c r="I282" t="n">
+        <v>122.7745157122518</v>
+      </c>
+      <c r="J282" t="n">
+        <v>114.2275513987061</v>
+      </c>
+      <c r="K282" t="n">
+        <v>129.546068510486</v>
+      </c>
+      <c r="L282" t="n">
+        <v>135.8277862185881</v>
+      </c>
+      <c r="M282" t="n">
+        <v>118.3283670203676</v>
+      </c>
+      <c r="N282" t="n">
+        <v>113.3972528600828</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B283" t="n">
+        <v>116.1911295287077</v>
+      </c>
+      <c r="C283" t="n">
+        <v>134.4784357084872</v>
+      </c>
+      <c r="D283" t="n">
+        <v>113.1151552373836</v>
+      </c>
+      <c r="E283" t="n">
+        <v>99.41007039248717</v>
+      </c>
+      <c r="F283" t="n">
+        <v>112.1932267046558</v>
+      </c>
+      <c r="G283" t="n">
+        <v>133.0679955722817</v>
+      </c>
+      <c r="H283" t="n">
+        <v>107.8572729487219</v>
+      </c>
+      <c r="I283" t="n">
+        <v>122.7713652485189</v>
+      </c>
+      <c r="J283" t="n">
+        <v>113.9666390199935</v>
+      </c>
+      <c r="K283" t="n">
+        <v>128.9845918736711</v>
+      </c>
+      <c r="L283" t="n">
+        <v>135.1919267862201</v>
+      </c>
+      <c r="M283" t="n">
+        <v>117.1327129326104</v>
+      </c>
+      <c r="N283" t="n">
+        <v>112.3678425758776</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B284" t="n">
+        <v>116.4882380510601</v>
+      </c>
+      <c r="C284" t="n">
+        <v>139.844827750683</v>
+      </c>
+      <c r="D284" t="n">
+        <v>114.0715171456965</v>
+      </c>
+      <c r="E284" t="n">
+        <v>99.42954816505666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>112.1466086981157</v>
+      </c>
+      <c r="G284" t="n">
+        <v>132.9064518713912</v>
+      </c>
+      <c r="H284" t="n">
+        <v>108.2812575677384</v>
+      </c>
+      <c r="I284" t="n">
+        <v>123.0820646404904</v>
+      </c>
+      <c r="J284" t="n">
+        <v>114.2139366007157</v>
+      </c>
+      <c r="K284" t="n">
+        <v>126.7835824552604</v>
+      </c>
+      <c r="L284" t="n">
+        <v>132.2232732726675</v>
+      </c>
+      <c r="M284" t="n">
+        <v>115.147751694709</v>
+      </c>
+      <c r="N284" t="n">
+        <v>109.0694576907631</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B285" t="n">
+        <v>116.4882380510601</v>
+      </c>
+      <c r="C285" t="n">
+        <v>139.0329021196318</v>
+      </c>
+      <c r="D285" t="n">
+        <v>113.8661020801778</v>
+      </c>
+      <c r="E285" t="n">
+        <v>99.08083202460382</v>
+      </c>
+      <c r="F285" t="n">
+        <v>112.1414232985819</v>
+      </c>
+      <c r="G285" t="n">
+        <v>133.7315826204601</v>
+      </c>
+      <c r="H285" t="n">
+        <v>107.4378010116058</v>
+      </c>
+      <c r="I285" t="n">
+        <v>122.6079253373027</v>
+      </c>
+      <c r="J285" t="n">
+        <v>113.7587771041447</v>
+      </c>
+      <c r="K285" t="n">
+        <v>126.1535813310305</v>
+      </c>
+      <c r="L285" t="n">
+        <v>130.6176858788003</v>
+      </c>
+      <c r="M285" t="n">
+        <v>115.2357574533534</v>
+      </c>
+      <c r="N285" t="n">
+        <v>108.2208846725468</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B286" t="n">
+        <v>114.8685923470177</v>
+      </c>
+      <c r="C286" t="n">
+        <v>137.2007615867305</v>
+      </c>
+      <c r="D286" t="n">
+        <v>112.9550445618166</v>
+      </c>
+      <c r="E286" t="n">
+        <v>98.51974415168449</v>
+      </c>
+      <c r="F286" t="n">
+        <v>112.2670490877744</v>
+      </c>
+      <c r="G286" t="n">
+        <v>133.638197083781</v>
+      </c>
+      <c r="H286" t="n">
+        <v>106.907710014283</v>
+      </c>
+      <c r="I286" t="n">
+        <v>122.4761876534753</v>
+      </c>
+      <c r="J286" t="n">
+        <v>113.4340694219949</v>
+      </c>
+      <c r="K286" t="n">
+        <v>125.5632165163781</v>
+      </c>
+      <c r="L286" t="n">
+        <v>128.8532262174558</v>
+      </c>
+      <c r="M286" t="n">
+        <v>115.6598567588982</v>
+      </c>
+      <c r="N286" t="n">
+        <v>107.8139917270196</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B287" t="n">
+        <v>114.5819510943812</v>
+      </c>
+      <c r="C287" t="n">
+        <v>141.6913824036982</v>
+      </c>
+      <c r="D287" t="n">
+        <v>114.1086870199338</v>
+      </c>
+      <c r="E287" t="n">
+        <v>98.92426914002068</v>
+      </c>
+      <c r="F287" t="n">
+        <v>113.0803600336722</v>
+      </c>
+      <c r="G287" t="n">
+        <v>135.9271327262613</v>
+      </c>
+      <c r="H287" t="n">
+        <v>108.1406382501272</v>
+      </c>
+      <c r="I287" t="n">
+        <v>124.2767270743389</v>
+      </c>
+      <c r="J287" t="n">
+        <v>114.6741097728962</v>
+      </c>
+      <c r="K287" t="n">
+        <v>125.5802961625052</v>
+      </c>
+      <c r="L287" t="n">
+        <v>129.1841847558415</v>
+      </c>
+      <c r="M287" t="n">
+        <v>115.1612782947784</v>
+      </c>
+      <c r="N287" t="n">
+        <v>108.0171834823249</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B288" t="n">
+        <v>114.9238154089945</v>
+      </c>
+      <c r="C288" t="n">
+        <v>141.2765721803061</v>
+      </c>
+      <c r="D288" t="n">
+        <v>114.3736150925184</v>
+      </c>
+      <c r="E288" t="n">
+        <v>98.19986974582513</v>
+      </c>
+      <c r="F288" t="n">
+        <v>113.400248595642</v>
+      </c>
+      <c r="G288" t="n">
+        <v>134.4767568081294</v>
+      </c>
+      <c r="H288" t="n">
+        <v>107.5909015255653</v>
+      </c>
+      <c r="I288" t="n">
+        <v>123.0305814526602</v>
+      </c>
+      <c r="J288" t="n">
+        <v>113.7967602905692</v>
+      </c>
+      <c r="K288" t="n">
+        <v>123.5880208159603</v>
+      </c>
+      <c r="L288" t="n">
+        <v>125.5891557343054</v>
+      </c>
+      <c r="M288" t="n">
+        <v>114.6478992858659</v>
+      </c>
+      <c r="N288" t="n">
+        <v>106.3026560117141</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B289" t="n">
+        <v>111.6173316394819</v>
+      </c>
+      <c r="C289" t="n">
+        <v>136.6486042268855</v>
+      </c>
+      <c r="D289" t="n">
+        <v>112.1062692473603</v>
+      </c>
+      <c r="E289" t="n">
+        <v>94.86742403805866</v>
+      </c>
+      <c r="F289" t="n">
+        <v>114.0931191518811</v>
+      </c>
+      <c r="G289" t="n">
+        <v>134.4799713763663</v>
+      </c>
+      <c r="H289" t="n">
+        <v>107.711868632199</v>
+      </c>
+      <c r="I289" t="n">
+        <v>122.8277991650722</v>
+      </c>
+      <c r="J289" t="n">
+        <v>113.5165019489023</v>
+      </c>
+      <c r="K289" t="n">
+        <v>125.5474031731285</v>
+      </c>
+      <c r="L289" t="n">
+        <v>127.6402230296271</v>
+      </c>
+      <c r="M289" t="n">
+        <v>116.242515574751</v>
+      </c>
+      <c r="N289" t="n">
+        <v>107.4657201851092</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B290" t="n">
+        <v>113.5097952287556</v>
+      </c>
+      <c r="C290" t="n">
+        <v>137.0354703691527</v>
+      </c>
+      <c r="D290" t="n">
+        <v>111.9721857254167</v>
+      </c>
+      <c r="E290" t="n">
+        <v>94.86742403805866</v>
+      </c>
+      <c r="F290" t="n">
+        <v>114.8908865464935</v>
+      </c>
+      <c r="G290" t="n">
+        <v>138.0316266926565</v>
+      </c>
+      <c r="H290" t="n">
+        <v>108.8814572279775</v>
+      </c>
+      <c r="I290" t="n">
+        <v>124.5622337336727</v>
+      </c>
+      <c r="J290" t="n">
+        <v>114.9852026570556</v>
+      </c>
+      <c r="K290" t="n">
+        <v>123.3381782287326</v>
+      </c>
+      <c r="L290" t="n">
+        <v>124.2737605539247</v>
+      </c>
+      <c r="M290" t="n">
+        <v>114.5199351634637</v>
+      </c>
+      <c r="N290" t="n">
+        <v>104.4435581894149</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B291" t="n">
+        <v>112.1450838684119</v>
+      </c>
+      <c r="C291" t="n">
+        <v>136.6512799715394</v>
+      </c>
+      <c r="D291" t="n">
+        <v>112.2181085363625</v>
+      </c>
+      <c r="E291" t="n">
+        <v>94.72284044083045</v>
+      </c>
+      <c r="F291" t="n">
+        <v>113.4365084504306</v>
+      </c>
+      <c r="G291" t="n">
+        <v>133.1405097093937</v>
+      </c>
+      <c r="H291" t="n">
+        <v>106.865883418105</v>
+      </c>
+      <c r="I291" t="n">
+        <v>121.1140456894082</v>
+      </c>
+      <c r="J291" t="n">
+        <v>112.4341430084031</v>
+      </c>
+      <c r="K291" t="n">
+        <v>121.8291570046728</v>
+      </c>
+      <c r="L291" t="n">
+        <v>123.8333599090443</v>
+      </c>
+      <c r="M291" t="n">
+        <v>112.7427926318352</v>
+      </c>
+      <c r="N291" t="n">
+        <v>103.3152811431817</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B292" t="n">
+        <v>112.4066130614159</v>
+      </c>
+      <c r="C292" t="n">
+        <v>140.5375082395485</v>
+      </c>
+      <c r="D292" t="n">
+        <v>112.8174830605098</v>
+      </c>
+      <c r="E292" t="n">
+        <v>95.81692430059708</v>
+      </c>
+      <c r="F292" t="n">
+        <v>113.3950631961083</v>
+      </c>
+      <c r="G292" t="n">
+        <v>137.638109964323</v>
+      </c>
+      <c r="H292" t="n">
+        <v>108.5367427941839</v>
+      </c>
+      <c r="I292" t="n">
+        <v>123.4028740571935</v>
+      </c>
+      <c r="J292" t="n">
+        <v>113.9429881209138</v>
+      </c>
+      <c r="K292" t="n">
+        <v>123.1886824231807</v>
+      </c>
+      <c r="L292" t="n">
+        <v>125.6454376007708</v>
+      </c>
+      <c r="M292" t="n">
+        <v>114.0303468133257</v>
+      </c>
+      <c r="N292" t="n">
+        <v>104.3695324442724</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B293" t="n">
+        <v>113.2678510953434</v>
+      </c>
+      <c r="C293" t="n">
+        <v>145.156727671318</v>
+      </c>
+      <c r="D293" t="n">
+        <v>114.1385218192107</v>
+      </c>
+      <c r="E293" t="n">
+        <v>96.49225433910821</v>
+      </c>
+      <c r="F293" t="n">
+        <v>112.4496510352587</v>
+      </c>
+      <c r="G293" t="n">
+        <v>139.6563812906538</v>
+      </c>
+      <c r="H293" t="n">
+        <v>108.854368169098</v>
+      </c>
+      <c r="I293" t="n">
+        <v>124.107666823641</v>
+      </c>
+      <c r="J293" t="n">
+        <v>114.5357743254484</v>
+      </c>
+      <c r="K293" t="n">
+        <v>120.9935824181979</v>
+      </c>
+      <c r="L293" t="n">
+        <v>122.3712086044723</v>
+      </c>
+      <c r="M293" t="n">
+        <v>112.8968156560557</v>
+      </c>
+      <c r="N293" t="n">
+        <v>102.6704093151873</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B294" t="n">
+        <v>110.8112579944946</v>
+      </c>
+      <c r="C294" t="n">
+        <v>144.332295842428</v>
+      </c>
+      <c r="D294" t="n">
+        <v>113.8498248070917</v>
+      </c>
+      <c r="E294" t="n">
+        <v>96.01731674570863</v>
+      </c>
+      <c r="F294" t="n">
+        <v>112.4121011542447</v>
+      </c>
+      <c r="G294" t="n">
+        <v>137.2082196975697</v>
+      </c>
+      <c r="H294" t="n">
+        <v>107.8336332386513</v>
+      </c>
+      <c r="I294" t="n">
+        <v>122.9372860127094</v>
+      </c>
+      <c r="J294" t="n">
+        <v>113.9752401423744</v>
+      </c>
+      <c r="K294" t="n">
+        <v>121.661541743314</v>
+      </c>
+      <c r="L294" t="n">
+        <v>123.2310315064037</v>
+      </c>
+      <c r="M294" t="n">
+        <v>113.4871388547962</v>
+      </c>
+      <c r="N294" t="n">
+        <v>103.1140664805288</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B295" t="n">
+        <v>111.2351237449544</v>
+      </c>
+      <c r="C295" t="n">
+        <v>141.664939066314</v>
+      </c>
+      <c r="D295" t="n">
+        <v>113.6343549197172</v>
+      </c>
+      <c r="E295" t="n">
+        <v>96.27613336403445</v>
+      </c>
+      <c r="F295" t="n">
+        <v>111.379915758758</v>
+      </c>
+      <c r="G295" t="n">
+        <v>134.8945342090625</v>
+      </c>
+      <c r="H295" t="n">
+        <v>106.8616365694774</v>
+      </c>
+      <c r="I295" t="n">
+        <v>121.1066250849363</v>
+      </c>
+      <c r="J295" t="n">
+        <v>112.6154928176253</v>
+      </c>
+      <c r="K295" t="n">
+        <v>118.3799538695127</v>
+      </c>
+      <c r="L295" t="n">
+        <v>118.3014410472581</v>
+      </c>
+      <c r="M295" t="n">
+        <v>111.1273167927665</v>
+      </c>
+      <c r="N295" t="n">
+        <v>100.3115012573945</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B296" t="n">
+        <v>110.5286886505929</v>
+      </c>
+      <c r="C296" t="n">
+        <v>141.6569001986798</v>
+      </c>
+      <c r="D296" t="n">
+        <v>114.0956487181503</v>
+      </c>
+      <c r="E296" t="n">
+        <v>95.04796378633999</v>
+      </c>
+      <c r="F296" t="n">
+        <v>110.0304345010684</v>
+      </c>
+      <c r="G296" t="n">
+        <v>133.1521916367184</v>
+      </c>
+      <c r="H296" t="n">
+        <v>105.4582119496465</v>
+      </c>
+      <c r="I296" t="n">
+        <v>119.3737602595894</v>
+      </c>
+      <c r="J296" t="n">
+        <v>111.2722302482837</v>
+      </c>
+      <c r="K296" t="n">
+        <v>117.484070321608</v>
+      </c>
+      <c r="L296" t="n">
+        <v>118.0832314230324</v>
+      </c>
+      <c r="M296" t="n">
+        <v>109.8593067876396</v>
+      </c>
+      <c r="N296" t="n">
+        <v>100.5360650203913</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B297" t="n">
+        <v>110.6067355237777</v>
+      </c>
+      <c r="C297" t="n">
+        <v>140.5738401984798</v>
+      </c>
+      <c r="D297" t="n">
+        <v>113.8288333060534</v>
+      </c>
+      <c r="E297" t="n">
+        <v>96.44206935513576</v>
+      </c>
+      <c r="F297" t="n">
+        <v>110.6132228194004</v>
+      </c>
+      <c r="G297" t="n">
+        <v>135.2252620338993</v>
+      </c>
+      <c r="H297" t="n">
+        <v>106.0829720108037</v>
+      </c>
+      <c r="I297" t="n">
+        <v>120.4870375432091</v>
+      </c>
+      <c r="J297" t="n">
+        <v>112.4656862903797</v>
+      </c>
+      <c r="K297" t="n">
+        <v>118.0581996920516</v>
+      </c>
+      <c r="L297" t="n">
+        <v>119.5213356222615</v>
+      </c>
+      <c r="M297" t="n">
+        <v>109.6404265125504</v>
+      </c>
+      <c r="N297" t="n">
+        <v>100.6791495202397</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B298" t="n">
+        <v>110.5194417800367</v>
+      </c>
+      <c r="C298" t="n">
+        <v>139.7538756997945</v>
+      </c>
+      <c r="D298" t="n">
+        <v>113.3833964561863</v>
+      </c>
+      <c r="E298" t="n">
+        <v>96.39786487034662</v>
+      </c>
+      <c r="F298" t="n">
+        <v>110.6339391229036</v>
+      </c>
+      <c r="G298" t="n">
+        <v>134.573659734691</v>
+      </c>
+      <c r="H298" t="n">
+        <v>105.4090781803337</v>
+      </c>
+      <c r="I298" t="n">
+        <v>119.7894458367225</v>
+      </c>
+      <c r="J298" t="n">
+        <v>111.9918895703385</v>
+      </c>
+      <c r="K298" t="n">
+        <v>116.4182551046419</v>
+      </c>
+      <c r="L298" t="n">
+        <v>117.1819014712847</v>
+      </c>
+      <c r="M298" t="n">
+        <v>108.2156384482732</v>
+      </c>
+      <c r="N298" t="n">
+        <v>99.05057099770038</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B299" t="n">
+        <v>111.3097206435916</v>
+      </c>
+      <c r="C299" t="n">
+        <v>142.7161926061497</v>
+      </c>
+      <c r="D299" t="n">
+        <v>115.4369866786797</v>
+      </c>
+      <c r="E299" t="n">
+        <v>96.12519434336222</v>
+      </c>
+      <c r="F299" t="n">
+        <v>111.7956330335751</v>
+      </c>
+      <c r="G299" t="n">
+        <v>137.0763175769796</v>
+      </c>
+      <c r="H299" t="n">
+        <v>106.6050880099403</v>
+      </c>
+      <c r="I299" t="n">
+        <v>121.4933088321659</v>
+      </c>
+      <c r="J299" t="n">
+        <v>113.3157974268557</v>
+      </c>
+      <c r="K299" t="n">
+        <v>118.8939904765788</v>
+      </c>
+      <c r="L299" t="n">
+        <v>120.2367700742901</v>
+      </c>
+      <c r="M299" t="n">
+        <v>110.0043707697008</v>
+      </c>
+      <c r="N299" t="n">
+        <v>101.5550440182091</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B300" t="n">
+        <v>112.3413686448007</v>
+      </c>
+      <c r="C300" t="n">
+        <v>143.8216474257359</v>
+      </c>
+      <c r="D300" t="n">
+        <v>115.6586707756273</v>
+      </c>
+      <c r="E300" t="n">
+        <v>97.78560587120418</v>
+      </c>
+      <c r="F300" t="n">
+        <v>112.4172739064625</v>
+      </c>
+      <c r="G300" t="n">
+        <v>138.0766539419458</v>
+      </c>
+      <c r="H300" t="n">
+        <v>107.2119270182629</v>
+      </c>
+      <c r="I300" t="n">
+        <v>122.4233542669025</v>
+      </c>
+      <c r="J300" t="n">
+        <v>114.3300561277922</v>
+      </c>
+      <c r="K300" t="n">
+        <v>119.6568298611926</v>
+      </c>
+      <c r="L300" t="n">
+        <v>120.6063388989772</v>
+      </c>
+      <c r="M300" t="n">
+        <v>110.9414969368362</v>
+      </c>
+      <c r="N300" t="n">
+        <v>102.7588447908278</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B301" t="n">
+        <v>113.689897981671</v>
+      </c>
+      <c r="C301" t="n">
+        <v>147.3657293882154</v>
+      </c>
+      <c r="D301" t="n">
+        <v>115.7812159774086</v>
+      </c>
+      <c r="E301" t="n">
+        <v>97.84741350725918</v>
+      </c>
+      <c r="F301" t="n">
+        <v>112.7397551681992</v>
+      </c>
+      <c r="G301" t="n">
+        <v>139.425118729379</v>
+      </c>
+      <c r="H301" t="n">
+        <v>107.7509072208811</v>
+      </c>
+      <c r="I301" t="n">
+        <v>123.3104677725124</v>
+      </c>
+      <c r="J301" t="n">
+        <v>115.1120670247055</v>
+      </c>
+      <c r="K301" t="n">
+        <v>118.3820643743084</v>
+      </c>
+      <c r="L301" t="n">
+        <v>118.5438829580558</v>
+      </c>
+      <c r="M301" t="n">
+        <v>110.2512674714269</v>
+      </c>
+      <c r="N301" t="n">
+        <v>101.8451853973149</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B302" t="n">
+        <v>113.4088893405409</v>
+      </c>
+      <c r="C302" t="n">
+        <v>147.5478196287509</v>
+      </c>
+      <c r="D302" t="n">
+        <v>115.6687997723984</v>
+      </c>
+      <c r="E302" t="n">
+        <v>98.4571958116022</v>
+      </c>
+      <c r="F302" t="n">
+        <v>112.7591814454769</v>
+      </c>
+      <c r="G302" t="n">
+        <v>138.8726905190736</v>
+      </c>
+      <c r="H302" t="n">
+        <v>108.5064702197682</v>
+      </c>
+      <c r="I302" t="n">
+        <v>123.8129283176194</v>
+      </c>
+      <c r="J302" t="n">
+        <v>115.9091451980581</v>
+      </c>
+      <c r="K302" t="n">
+        <v>119.6604125717726</v>
+      </c>
+      <c r="L302" t="n">
+        <v>120.2144160544719</v>
+      </c>
+      <c r="M302" t="n">
+        <v>111.2676267859825</v>
+      </c>
+      <c r="N302" t="n">
+        <v>103.4419727551781</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B303" t="n">
+        <v>113.4088893405409</v>
+      </c>
+      <c r="C303" t="n">
+        <v>144.2646809383906</v>
+      </c>
+      <c r="D303" t="n">
+        <v>115.0786806293527</v>
+      </c>
+      <c r="E303" t="n">
+        <v>98.77482067189719</v>
+      </c>
+      <c r="F303" t="n">
+        <v>112.6983099138768</v>
+      </c>
+      <c r="G303" t="n">
+        <v>137.1498450019054</v>
+      </c>
+      <c r="H303" t="n">
+        <v>107.4804251076025</v>
+      </c>
+      <c r="I303" t="n">
+        <v>122.5443123152396</v>
+      </c>
+      <c r="J303" t="n">
+        <v>114.8253512788504</v>
+      </c>
+      <c r="K303" t="n">
+        <v>119.3989673557413</v>
+      </c>
+      <c r="L303" t="n">
+        <v>119.8137764649604</v>
+      </c>
+      <c r="M303" t="n">
+        <v>111.2376424772528</v>
+      </c>
+      <c r="N303" t="n">
+        <v>102.7737396974369</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B304" t="n">
+        <v>113.1841246722231</v>
+      </c>
+      <c r="C304" t="n">
+        <v>141.1064064539892</v>
+      </c>
+      <c r="D304" t="n">
+        <v>113.5893884377131</v>
+      </c>
+      <c r="E304" t="n">
+        <v>99.00067138876153</v>
+      </c>
+      <c r="F304" t="n">
+        <v>111.9834203805931</v>
+      </c>
+      <c r="G304" t="n">
+        <v>136.5089695771399</v>
+      </c>
+      <c r="H304" t="n">
+        <v>106.799891929049</v>
+      </c>
+      <c r="I304" t="n">
+        <v>121.9350653199806</v>
+      </c>
+      <c r="J304" t="n">
+        <v>114.2153715794242</v>
+      </c>
+      <c r="K304" t="n">
+        <v>119.497430125819</v>
+      </c>
+      <c r="L304" t="n">
+        <v>120.4396757926401</v>
+      </c>
+      <c r="M304" t="n">
+        <v>111.322572125468</v>
+      </c>
+      <c r="N304" t="n">
+        <v>102.1949488557667</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B305" t="n">
+        <v>112.9781353755931</v>
+      </c>
+      <c r="C305" t="n">
+        <v>142.3920435918359</v>
+      </c>
+      <c r="D305" t="n">
+        <v>113.7648285957815</v>
+      </c>
+      <c r="E305" t="n">
+        <v>98.58641665863476</v>
+      </c>
+      <c r="F305" t="n">
+        <v>111.8694554166936</v>
+      </c>
+      <c r="G305" t="n">
+        <v>136.2762860835285</v>
+      </c>
+      <c r="H305" t="n">
+        <v>106.5260836579903</v>
+      </c>
+      <c r="I305" t="n">
+        <v>121.7543143240718</v>
+      </c>
+      <c r="J305" t="n">
+        <v>114.1952993772455</v>
+      </c>
+      <c r="K305" t="n">
+        <v>121.6060817953416</v>
+      </c>
+      <c r="L305" t="n">
+        <v>123.1793527162085</v>
+      </c>
+      <c r="M305" t="n">
+        <v>112.9080636558071</v>
+      </c>
+      <c r="N305" t="n">
+        <v>104.7982825736021</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B306" t="n">
+        <v>113.4949861543368</v>
+      </c>
+      <c r="C306" t="n">
+        <v>139.0486308447279</v>
+      </c>
+      <c r="D306" t="n">
+        <v>113.7630731227854</v>
+      </c>
+      <c r="E306" t="n">
+        <v>97.97738420281318</v>
+      </c>
+      <c r="F306" t="n">
+        <v>112.2035848564074</v>
+      </c>
+      <c r="G306" t="n">
+        <v>137.809611838556</v>
+      </c>
+      <c r="H306" t="n">
+        <v>107.6715008771525</v>
+      </c>
+      <c r="I306" t="n">
+        <v>123.0872349137245</v>
+      </c>
+      <c r="J306" t="n">
+        <v>115.2432450783512</v>
+      </c>
+      <c r="K306" t="n">
+        <v>121.7975303181735</v>
+      </c>
+      <c r="L306" t="n">
+        <v>123.7432824682383</v>
+      </c>
+      <c r="M306" t="n">
+        <v>112.9191459391717</v>
+      </c>
+      <c r="N306" t="n">
+        <v>104.1027341008092</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B307" t="n">
+        <v>114.2362378285719</v>
+      </c>
+      <c r="C307" t="n">
+        <v>139.876994854892</v>
+      </c>
+      <c r="D307" t="n">
+        <v>113.7198950804064</v>
+      </c>
+      <c r="E307" t="n">
+        <v>99.03101282039792</v>
+      </c>
+      <c r="F307" t="n">
+        <v>112.5377142961212</v>
+      </c>
+      <c r="G307" t="n">
+        <v>136.1950017656831</v>
+      </c>
+      <c r="H307" t="n">
+        <v>106.6369620677316</v>
+      </c>
+      <c r="I307" t="n">
+        <v>121.6621385611272</v>
+      </c>
+      <c r="J307" t="n">
+        <v>114.401735064256</v>
+      </c>
+      <c r="K307" t="n">
+        <v>120.4386431986769</v>
+      </c>
+      <c r="L307" t="n">
+        <v>121.2182834983089</v>
+      </c>
+      <c r="M307" t="n">
+        <v>112.5672679064324</v>
+      </c>
+      <c r="N307" t="n">
+        <v>103.0320959765679</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B308" t="n">
+        <v>113.5533540910713</v>
+      </c>
+      <c r="C308" t="n">
+        <v>140.4457185642466</v>
+      </c>
+      <c r="D308" t="n">
+        <v>113.8904396940631</v>
+      </c>
+      <c r="E308" t="n">
+        <v>97.6530107058251</v>
+      </c>
+      <c r="F308" t="n">
+        <v>112.2333692854368</v>
+      </c>
+      <c r="G308" t="n">
+        <v>135.2391568886334</v>
+      </c>
+      <c r="H308" t="n">
+        <v>106.098241214648</v>
+      </c>
+      <c r="I308" t="n">
+        <v>120.9739872686138</v>
+      </c>
+      <c r="J308" t="n">
+        <v>113.9695089774105</v>
+      </c>
+      <c r="K308" t="n">
+        <v>120.0403549107226</v>
+      </c>
+      <c r="L308" t="n">
+        <v>120.5749771350784</v>
+      </c>
+      <c r="M308" t="n">
+        <v>112.1560530499583</v>
+      </c>
+      <c r="N308" t="n">
+        <v>102.6281747347209</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B309" t="n">
+        <v>111.5116732353087</v>
+      </c>
+      <c r="C309" t="n">
+        <v>139.5391413744811</v>
+      </c>
+      <c r="D309" t="n">
+        <v>113.1328418338611</v>
+      </c>
+      <c r="E309" t="n">
+        <v>95.81130958118034</v>
+      </c>
+      <c r="F309" t="n">
+        <v>112.1401332723564</v>
+      </c>
+      <c r="G309" t="n">
+        <v>133.9438140060136</v>
+      </c>
+      <c r="H309" t="n">
+        <v>105.1152221902574</v>
+      </c>
+      <c r="I309" t="n">
+        <v>119.8571094550137</v>
+      </c>
+      <c r="J309" t="n">
+        <v>112.813327382255</v>
+      </c>
+      <c r="K309" t="n">
+        <v>117.6710919319417</v>
+      </c>
+      <c r="L309" t="n">
+        <v>117.3172160409536</v>
+      </c>
+      <c r="M309" t="n">
+        <v>110.2581343442033</v>
+      </c>
+      <c r="N309" t="n">
+        <v>100.5201694380533</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B310" t="n">
+        <v>106.9972641936529</v>
+      </c>
+      <c r="C310" t="n">
+        <v>137.7103978739231</v>
+      </c>
+      <c r="D310" t="n">
+        <v>112.607543325156</v>
+      </c>
+      <c r="E310" t="n">
+        <v>92.93245821743449</v>
+      </c>
+      <c r="F310" t="n">
+        <v>111.1545658834099</v>
+      </c>
+      <c r="G310" t="n">
+        <v>132.1665887095046</v>
+      </c>
+      <c r="H310" t="n">
+        <v>103.4504704957162</v>
+      </c>
+      <c r="I310" t="n">
+        <v>117.9909372025858</v>
+      </c>
+      <c r="J310" t="n">
+        <v>111.2586154502932</v>
+      </c>
+      <c r="K310" t="n">
+        <v>118.3228158128491</v>
+      </c>
+      <c r="L310" t="n">
+        <v>117.1567035968742</v>
+      </c>
+      <c r="M310" t="n">
+        <v>111.366083034267</v>
+      </c>
+      <c r="N310" t="n">
+        <v>99.95578226217971</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B311" t="n">
+        <v>107.0180579177972</v>
+      </c>
+      <c r="C311" t="n">
+        <v>138.2301554561109</v>
+      </c>
+      <c r="D311" t="n">
+        <v>113.0358952195256</v>
+      </c>
+      <c r="E311" t="n">
+        <v>94.44079680732789</v>
+      </c>
+      <c r="F311" t="n">
+        <v>111.8280101623713</v>
+      </c>
+      <c r="G311" t="n">
+        <v>134.4116967422913</v>
+      </c>
+      <c r="H311" t="n">
+        <v>104.5877895256633</v>
+      </c>
+      <c r="I311" t="n">
+        <v>119.6075641865821</v>
+      </c>
+      <c r="J311" t="n">
+        <v>112.4570851679988</v>
+      </c>
+      <c r="K311" t="n">
+        <v>118.7702222392435</v>
+      </c>
+      <c r="L311" t="n">
+        <v>118.1766288987345</v>
+      </c>
+      <c r="M311" t="n">
+        <v>111.3347937089917</v>
+      </c>
+      <c r="N311" t="n">
+        <v>99.97217515003162</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B312" t="n">
+        <v>107.3226413850029</v>
+      </c>
+      <c r="C312" t="n">
+        <v>138.2044799411057</v>
+      </c>
+      <c r="D312" t="n">
+        <v>113.0930099043292</v>
+      </c>
+      <c r="E312" t="n">
+        <v>93.85911553355106</v>
+      </c>
+      <c r="F312" t="n">
+        <v>111.4874052968983</v>
+      </c>
+      <c r="G312" t="n">
+        <v>133.5223328634163</v>
+      </c>
+      <c r="H312" t="n">
+        <v>104.3550168347025</v>
+      </c>
+      <c r="I312" t="n">
+        <v>119.2400027662608</v>
+      </c>
+      <c r="J312" t="n">
+        <v>112.0262940598619</v>
+      </c>
+      <c r="K312" t="n">
+        <v>119.5693314209071</v>
+      </c>
+      <c r="L312" t="n">
+        <v>119.200337188564</v>
+      </c>
+      <c r="M312" t="n">
+        <v>111.9588401924382</v>
+      </c>
+      <c r="N312" t="n">
+        <v>101.6176438659366</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B313" t="n">
+        <v>104.3487985287619</v>
+      </c>
+      <c r="C313" t="n">
+        <v>136.1035317735371</v>
+      </c>
+      <c r="D313" t="n">
+        <v>112.8189335921873</v>
+      </c>
+      <c r="E313" t="n">
+        <v>93.14145563155442</v>
+      </c>
+      <c r="F313" t="n">
+        <v>109.7545838931879</v>
+      </c>
+      <c r="G313" t="n">
+        <v>129.5063820826489</v>
+      </c>
+      <c r="H313" t="n">
+        <v>100.9045463389863</v>
+      </c>
+      <c r="I313" t="n">
+        <v>114.9534730295057</v>
+      </c>
+      <c r="J313" t="n">
+        <v>108.4531008271165</v>
+      </c>
+      <c r="K313" t="n">
+        <v>113.7826978963724</v>
+      </c>
+      <c r="L313" t="n">
+        <v>112.0863886307191</v>
+      </c>
+      <c r="M313" t="n">
+        <v>107.5059994510645</v>
+      </c>
+      <c r="N313" t="n">
+        <v>94.92001204692284</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B314" t="n">
+        <v>101.4788656202057</v>
+      </c>
+      <c r="C314" t="n">
+        <v>136.1035317735371</v>
+      </c>
+      <c r="D314" t="n">
+        <v>112.8189335921873</v>
+      </c>
+      <c r="E314" t="n">
+        <v>92.34439408673114</v>
+      </c>
+      <c r="F314" t="n">
+        <v>104.3191089814155</v>
+      </c>
+      <c r="G314" t="n">
+        <v>123.0918858707147</v>
+      </c>
+      <c r="H314" t="n">
+        <v>96.60185327287117</v>
+      </c>
+      <c r="I314" t="n">
+        <v>109.6710345047131</v>
+      </c>
+      <c r="J314" t="n">
+        <v>102.935966437598</v>
+      </c>
+      <c r="K314" t="n">
+        <v>106.9842266019143</v>
+      </c>
+      <c r="L314" t="n">
+        <v>105.5658467084334</v>
+      </c>
+      <c r="M314" t="n">
+        <v>101.5904008782968</v>
+      </c>
+      <c r="N314" t="n">
+        <v>90.77056761602289</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B315" t="n">
+        <v>93.53613824869434</v>
+      </c>
+      <c r="C315" t="n">
+        <v>118.1060893200793</v>
+      </c>
+      <c r="D315" t="n">
+        <v>104.5336779664733</v>
+      </c>
+      <c r="E315" t="n">
+        <v>87.20470370833014</v>
+      </c>
+      <c r="F315" t="n">
+        <v>99.74875474527293</v>
+      </c>
+      <c r="G315" t="n">
+        <v>118.0105852470885</v>
+      </c>
+      <c r="H315" t="n">
+        <v>91.98312334774084</v>
+      </c>
+      <c r="I315" t="n">
+        <v>104.6824233762214</v>
+      </c>
+      <c r="J315" t="n">
+        <v>98.22594632252144</v>
+      </c>
+      <c r="K315" t="n">
+        <v>106.7347958205004</v>
+      </c>
+      <c r="L315" t="n">
+        <v>105.6706129888892</v>
+      </c>
+      <c r="M315" t="n">
+        <v>100.6643569945262</v>
+      </c>
+      <c r="N315" t="n">
+        <v>89.93143733786779</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B316" t="n">
+        <v>99.17174794720647</v>
+      </c>
+      <c r="C316" t="n">
+        <v>119.8893218941759</v>
+      </c>
+      <c r="D316" t="n">
+        <v>106.186904962648</v>
+      </c>
+      <c r="E316" t="n">
+        <v>87.43056356968863</v>
+      </c>
+      <c r="F316" t="n">
+        <v>102.4477109369941</v>
+      </c>
+      <c r="G316" t="n">
+        <v>120.9364013980111</v>
+      </c>
+      <c r="H316" t="n">
+        <v>94.28431879996896</v>
+      </c>
+      <c r="I316" t="n">
+        <v>107.3181320713915</v>
+      </c>
+      <c r="J316" t="n">
+        <v>100.756216279641</v>
+      </c>
+      <c r="K316" t="n">
+        <v>105.0590035370001</v>
+      </c>
+      <c r="L316" t="n">
+        <v>103.3995107115106</v>
+      </c>
+      <c r="M316" t="n">
+        <v>99.81585802248564</v>
+      </c>
+      <c r="N316" t="n">
+        <v>87.47565174010231</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B317" t="n">
+        <v>95.27083004275387</v>
+      </c>
+      <c r="C317" t="n">
+        <v>120.7042257453636</v>
+      </c>
+      <c r="D317" t="n">
+        <v>107.579786247674</v>
+      </c>
+      <c r="E317" t="n">
+        <v>85.91247694901634</v>
+      </c>
+      <c r="F317" t="n">
+        <v>99.45606423622353</v>
+      </c>
+      <c r="G317" t="n">
+        <v>117.3025183579799</v>
+      </c>
+      <c r="H317" t="n">
+        <v>91.131957626695</v>
+      </c>
+      <c r="I317" t="n">
+        <v>103.911986800984</v>
+      </c>
+      <c r="J317" t="n">
+        <v>97.16724703097218</v>
+      </c>
+      <c r="K317" t="n">
+        <v>115.05577497942</v>
+      </c>
+      <c r="L317" t="n">
+        <v>115.9761600330892</v>
+      </c>
+      <c r="M317" t="n">
+        <v>107.6717676241967</v>
+      </c>
+      <c r="N317" t="n">
+        <v>95.0496814273008</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B318" t="n">
+        <v>103.9674941989969</v>
+      </c>
+      <c r="C318" t="n">
+        <v>123.1897831227522</v>
+      </c>
+      <c r="D318" t="n">
+        <v>108.8230155201944</v>
+      </c>
+      <c r="E318" t="n">
+        <v>91.58179814041225</v>
+      </c>
+      <c r="F318" t="n">
+        <v>102.4839707917827</v>
+      </c>
+      <c r="G318" t="n">
+        <v>122.6208468011319</v>
+      </c>
+      <c r="H318" t="n">
+        <v>94.62425471858921</v>
+      </c>
+      <c r="I318" t="n">
+        <v>108.3358635838226</v>
+      </c>
+      <c r="J318" t="n">
+        <v>100.6214595290942</v>
+      </c>
+      <c r="K318" t="n">
+        <v>111.0739730901373</v>
+      </c>
+      <c r="L318" t="n">
+        <v>110.9804731023272</v>
+      </c>
+      <c r="M318" t="n">
+        <v>104.9810927959979</v>
+      </c>
+      <c r="N318" t="n">
+        <v>90.98718055549996</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B319" t="n">
+        <v>100.8930740235457</v>
+      </c>
+      <c r="C319" t="n">
+        <v>124.5770985574479</v>
+      </c>
+      <c r="D319" t="n">
+        <v>109.3155122330095</v>
+      </c>
+      <c r="E319" t="n">
+        <v>91.11958968288906</v>
+      </c>
+      <c r="F319" t="n">
+        <v>103.1431741930001</v>
+      </c>
+      <c r="G319" t="n">
+        <v>121.4959925049313</v>
+      </c>
+      <c r="H319" t="n">
+        <v>94.34247793308276</v>
+      </c>
+      <c r="I319" t="n">
+        <v>107.6234306683923</v>
+      </c>
+      <c r="J319" t="n">
+        <v>100.3411924375572</v>
+      </c>
+      <c r="K319" t="n">
+        <v>113.0835339857161</v>
+      </c>
+      <c r="L319" t="n">
+        <v>113.2637708863759</v>
+      </c>
+      <c r="M319" t="n">
+        <v>106.6224825350464</v>
+      </c>
+      <c r="N319" t="n">
+        <v>92.41851679479561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
